--- a/api/test/test_data - Updates.xlsx
+++ b/api/test/test_data - Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flat\api\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3370D4C-F5F9-4194-8715-D5F425CB3E9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{516BB764-F601-479B-A289-4F66BAC14A4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>2019</v>
       </c>
       <c r="B2">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
